--- a/Typst Cheatsheet.xlsx
+++ b/Typst Cheatsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conor\My Drive\Cheatsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD15D34F-7910-444A-A579-911C8D8A568A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BCF6BB-8688-4587-AFBE-7017082BDE90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="602" activeTab="4" xr2:uid="{372CE1F8-AB9D-43B2-80F2-9E838A98541A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="602" activeTab="2" xr2:uid="{372CE1F8-AB9D-43B2-80F2-9E838A98541A}"/>
   </bookViews>
   <sheets>
     <sheet name="Understanding typst" sheetId="1" r:id="rId1"/>
@@ -4130,31 +4130,13 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -4165,11 +4147,29 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -4188,13 +4188,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
@@ -4202,6 +4195,13 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -4650,56 +4650,56 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A7CA087E-ECB4-4C0B-9D57-8ADC1123E770}" name="Table6" displayName="Table6" ref="A1:E16" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A7CA087E-ECB4-4C0B-9D57-8ADC1123E770}" name="Table6" displayName="Table6" ref="A1:E16" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32">
   <autoFilter ref="A1:E16" xr:uid="{A7CA087E-ECB4-4C0B-9D57-8ADC1123E770}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{DDB0F125-4A4A-4AE3-929D-31F529B1652E}" name="Concept" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{F2F05662-99BC-4132-9318-7968D58D370C}" name="Code" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{4C99B314-BF63-4210-A049-B651AB86D9B3}" name="Explained" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{7A25B4AE-B1BF-42CA-9FA4-4FB3F7E17C26}" name="Notes" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{53F30DB0-64B2-426E-94C0-6E10BD11C410}" name="Image" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{DDB0F125-4A4A-4AE3-929D-31F529B1652E}" name="Concept" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{F2F05662-99BC-4132-9318-7968D58D370C}" name="Code" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{4C99B314-BF63-4210-A049-B651AB86D9B3}" name="Explained" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{7A25B4AE-B1BF-42CA-9FA4-4FB3F7E17C26}" name="Notes" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{53F30DB0-64B2-426E-94C0-6E10BD11C410}" name="Image" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B84994FB-53A2-400B-A6B0-9C0315E50558}" name="Table8" displayName="Table8" ref="A1:E10" totalsRowShown="0" headerRowDxfId="6" dataDxfId="0" headerRowBorderDxfId="7" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B84994FB-53A2-400B-A6B0-9C0315E50558}" name="Table8" displayName="Table8" ref="A1:E10" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23">
   <autoFilter ref="A1:E10" xr:uid="{B84994FB-53A2-400B-A6B0-9C0315E50558}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{75423248-97BA-41C2-8A28-7F26C60791A2}" name="Concept" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{BCAA8C4B-40F9-4535-895C-15C832AE708C}" name="Code" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{ED065276-ED9D-4C4A-A8FA-237C932C5946}" name="Explained" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{FB070E96-C8DF-460D-985D-62555F8164F4}" name="Notes" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{F51A6343-6901-4652-B044-838714D801DF}" name="Image" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{75423248-97BA-41C2-8A28-7F26C60791A2}" name="Concept" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{BCAA8C4B-40F9-4535-895C-15C832AE708C}" name="Code" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{ED065276-ED9D-4C4A-A8FA-237C932C5946}" name="Explained" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{FB070E96-C8DF-460D-985D-62555F8164F4}" name="Notes" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{F51A6343-6901-4652-B044-838714D801DF}" name="Image" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C25A43EB-1AEA-4787-A04D-2F1FB119FF76}" name="Table24" displayName="Table24" ref="A1:E4" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C25A43EB-1AEA-4787-A04D-2F1FB119FF76}" name="Table24" displayName="Table24" ref="A1:E4" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14">
   <autoFilter ref="A1:E4" xr:uid="{C25A43EB-1AEA-4787-A04D-2F1FB119FF76}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{659ABA90-77D5-4412-8CD3-89321E1E33E2}" name="Concept" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{FFEB3EFA-FF84-47E3-90F4-99630AAB4A5B}" name="Code" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{054639C1-1AC6-46EB-A6DF-095CDCF63E38}" name="Explained" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{7CEAEA74-B9BA-40E2-9FBC-3CE6B47ABF54}" name="Notes" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{977CBDB1-2DDC-49CF-9C44-EFB563D77D0E}" name="Image" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{659ABA90-77D5-4412-8CD3-89321E1E33E2}" name="Concept" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{FFEB3EFA-FF84-47E3-90F4-99630AAB4A5B}" name="Code" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{054639C1-1AC6-46EB-A6DF-095CDCF63E38}" name="Explained" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{7CEAEA74-B9BA-40E2-9FBC-3CE6B47ABF54}" name="Notes" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{977CBDB1-2DDC-49CF-9C44-EFB563D77D0E}" name="Image" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{18B0A581-2817-4A25-9E85-8C76996984B2}" name="Table2" displayName="Table2" ref="A1:E8" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{18B0A581-2817-4A25-9E85-8C76996984B2}" name="Table2" displayName="Table2" ref="A1:E8" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5">
   <autoFilter ref="A1:E8" xr:uid="{18B0A581-2817-4A25-9E85-8C76996984B2}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{154CF77F-AA25-47DD-9DDC-F715EF22F9A8}" name="Concept" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{2D7336EC-9CD0-447F-AFA6-A7CC62DE010B}" name="Code" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{2CDA5342-8507-49D6-AAD0-BE2DF95FA58D}" name="Explained" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{57751AF8-2926-46BD-B4B0-FFFB71574637}" name="Notes" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{2F4C223D-F6B1-4A2E-BF23-ADF9EED12FC9}" name="Image" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{154CF77F-AA25-47DD-9DDC-F715EF22F9A8}" name="Concept" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{2D7336EC-9CD0-447F-AFA6-A7CC62DE010B}" name="Code" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{2CDA5342-8507-49D6-AAD0-BE2DF95FA58D}" name="Explained" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{57751AF8-2926-46BD-B4B0-FFFB71574637}" name="Notes" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{2F4C223D-F6B1-4A2E-BF23-ADF9EED12FC9}" name="Image" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5099,7 +5099,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5296,8 +5296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{083466DC-D954-4484-AC22-115CF70DF609}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5707,8 +5707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6CEAD86-5579-4F1E-A865-6AF52E83A95D}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5854,7 +5854,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5921,8 +5921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F426CB-D572-4242-9EFC-BDDF7C4BA5C5}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Typst Cheatsheet.xlsx
+++ b/Typst Cheatsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conor\My Drive\Cheatsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BCF6BB-8688-4587-AFBE-7017082BDE90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D993C1-4C19-4A79-A4E8-41989CE3167E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="602" activeTab="2" xr2:uid="{372CE1F8-AB9D-43B2-80F2-9E838A98541A}"/>
+    <workbookView xWindow="-28920" yWindow="-885" windowWidth="29040" windowHeight="15720" tabRatio="602" activeTab="2" xr2:uid="{372CE1F8-AB9D-43B2-80F2-9E838A98541A}"/>
   </bookViews>
   <sheets>
     <sheet name="Understanding typst" sheetId="1" r:id="rId1"/>
@@ -5025,7 +5025,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5297,7 +5297,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5707,8 +5707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6CEAD86-5579-4F1E-A865-6AF52E83A95D}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5854,7 +5854,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
